--- a/References/Literature Review - ERASMUS Project.xlsx
+++ b/References/Literature Review - ERASMUS Project.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work Data\Politecnico di Milano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelh\OneDrive\Documents\Hydroinformatics\ERASMUS_Project\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18693BC-5360-410F-B3A2-08D95350B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956AB6DB-523C-4D41-979F-580B2C99AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33D79010-2EAD-46DA-9565-688F701BD65C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{33D79010-2EAD-46DA-9565-688F701BD65C}"/>
   </bookViews>
   <sheets>
     <sheet name="Irrigation Scheduling" sheetId="1" r:id="rId1"/>
     <sheet name="Pressure Management" sheetId="3" r:id="rId2"/>
+    <sheet name="Leakage Modelling" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Irrigation Scheduling'!$A$1:$J$17</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>FOR: IRRIGATION SCHEDULING</t>
   </si>
@@ -387,6 +388,30 @@
   </si>
   <si>
     <t>Journal Publisher</t>
+  </si>
+  <si>
+    <t>FOR: LEAKAGE MODELLING</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Agricultural Water Management</t>
+  </si>
+  <si>
+    <t>Optimization Tool to Improve the Management of the Leakages and Recovered Energy in Irrigation Water Systems</t>
+  </si>
+  <si>
+    <t>Leakage modelling was based on the balance of water volumes and distributed along the network with the global emitter coefficient (K) concept.</t>
+  </si>
+  <si>
+    <t>Requirements of Data</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Water meter reading</t>
   </si>
 </sst>
 </file>
@@ -807,7 +832,7 @@
   </sheetPr>
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="E4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1150,7 +1175,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1408,4 +1433,238 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7117D393-370F-41E6-8475-B08505AFF5F4}">
+  <dimension ref="B2:I19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="8" customWidth="1"/>
+    <col min="3" max="9" width="35.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References/Literature Review - ERASMUS Project.xlsx
+++ b/References/Literature Review - ERASMUS Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelh\OneDrive\Documents\Hydroinformatics\ERASMUS_Project\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956AB6DB-523C-4D41-979F-580B2C99AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CC26A-B2DD-4FFB-9310-4577EEB88852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{33D79010-2EAD-46DA-9565-688F701BD65C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>FOR: IRRIGATION SCHEDULING</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Agricultural Water Management</t>
-  </si>
-  <si>
     <t>Optimization Tool to Improve the Management of the Leakages and Recovered Energy in Irrigation Water Systems</t>
   </si>
   <si>
@@ -411,7 +408,22 @@
     <t>2021</t>
   </si>
   <si>
-    <t>Water meter reading</t>
+    <t>Leakage Detection in Water Networks by a Calibration Method</t>
+  </si>
+  <si>
+    <t>Elsevier - Flow Measurement and Instrumentation</t>
+  </si>
+  <si>
+    <t>Elsevier - Agricultural Water Management</t>
+  </si>
+  <si>
+    <t>Pressure and flow meter sensors.</t>
+  </si>
+  <si>
+    <t>Flow meter sensors.</t>
+  </si>
+  <si>
+    <t>The zone with the most leakage was identified by analysing the result of pressure sensors. Node demands and pipe roughness were calibrated with a metaheuristic optimization algorithm. Then the probability of leakage in each sub-zone was estimated.</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7117D393-370F-41E6-8475-B08505AFF5F4}">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>5</v>
@@ -1499,32 +1511,42 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>

--- a/References/Literature Review - ERASMUS Project.xlsx
+++ b/References/Literature Review - ERASMUS Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelh\OneDrive\Documents\Hydroinformatics\ERASMUS_Project\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CC26A-B2DD-4FFB-9310-4577EEB88852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CD2CD-0AFE-42A2-B572-C475890DBB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{33D79010-2EAD-46DA-9565-688F701BD65C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
   <si>
     <t>FOR: IRRIGATION SCHEDULING</t>
   </si>
@@ -390,9 +390,6 @@
     <t>Journal Publisher</t>
   </si>
   <si>
-    <t>FOR: LEAKAGE MODELLING</t>
-  </si>
-  <si>
     <t>Publisher</t>
   </si>
   <si>
@@ -417,13 +414,64 @@
     <t>Elsevier - Agricultural Water Management</t>
   </si>
   <si>
-    <t>Pressure and flow meter sensors.</t>
-  </si>
-  <si>
-    <t>Flow meter sensors.</t>
-  </si>
-  <si>
     <t>The zone with the most leakage was identified by analysing the result of pressure sensors. Node demands and pipe roughness were calibrated with a metaheuristic optimization algorithm. Then the probability of leakage in each sub-zone was estimated.</t>
+  </si>
+  <si>
+    <t>Locating Multiple Leaks in Water Distribution Networks Combining Physically Based and Data-Driven Models and High-Performance Computing</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>American Society of Civil Engineers</t>
+  </si>
+  <si>
+    <t>A data-driven approach to locate multiple leaks in WDS using pressure residuals. Involving two phases, one phase to produce data sets to train classification model and perform clustering, and the other phase to estimate the location of the leaks.</t>
+  </si>
+  <si>
+    <t>- Calibrated hydraulic model.
+- Pressure sensors</t>
+  </si>
+  <si>
+    <t>- High computational demand</t>
+  </si>
+  <si>
+    <t>Leak Location Approach</t>
+  </si>
+  <si>
+    <t>Hydraulic Model Based</t>
+  </si>
+  <si>
+    <t>- Pressure sensors.
+- Flow meter sensors.</t>
+  </si>
+  <si>
+    <t>- Flow meter sensors.</t>
+  </si>
+  <si>
+    <t>Deep Learning Identifies Accurate Burst Locations in Water Distribution Networks</t>
+  </si>
+  <si>
+    <t>FOR: LEAKAGE MODELLING, LEAKAGE DETECTION, LEAKAGE LOCALIZATION</t>
+  </si>
+  <si>
+    <t>- Calibrated hydraulic model.
+- Pressure sensors.</t>
+  </si>
+  <si>
+    <t>Elsevier - Water Research</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>A Proof-of-Concept Study for Hydraulic Model-Based Leakage Detection in Water Pipelines Using Pressure Monitoring Data</t>
+  </si>
+  <si>
+    <t>Frontiers in Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization algorithm is used to predict </t>
   </si>
 </sst>
 </file>
@@ -1449,22 +1497,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7117D393-370F-41E6-8475-B08505AFF5F4}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" style="8" customWidth="1"/>
-    <col min="3" max="9" width="35.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="10" width="35.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>95</v>
       </c>
@@ -1472,15 +1520,15 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>96</v>
@@ -1497,96 +1545,144 @@
         <v>3</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>6</v>
       </c>
@@ -1594,11 +1690,12 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>7</v>
       </c>
@@ -1606,11 +1703,12 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>8</v>
       </c>
@@ -1618,11 +1716,12 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>9</v>
       </c>
@@ -1630,11 +1729,12 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>10</v>
       </c>
@@ -1645,8 +1745,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1655,8 +1756,9 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1665,8 +1767,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1675,8 +1778,9 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1685,8 +1789,10 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/References/Literature Review - ERASMUS Project.xlsx
+++ b/References/Literature Review - ERASMUS Project.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelh\OneDrive\Documents\Hydroinformatics\ERASMUS_Project\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CD2CD-0AFE-42A2-B572-C475890DBB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF0D96-58BD-46AF-A98B-8F4C78302441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{33D79010-2EAD-46DA-9565-688F701BD65C}"/>
   </bookViews>
   <sheets>
     <sheet name="Irrigation Scheduling" sheetId="1" r:id="rId1"/>
     <sheet name="Pressure Management" sheetId="3" r:id="rId2"/>
-    <sheet name="Leakage Modelling" sheetId="4" r:id="rId3"/>
+    <sheet name="Leak Detection &amp; Location" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Irrigation Scheduling'!$A$1:$J$17</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>FOR: IRRIGATION SCHEDULING</t>
   </si>
@@ -390,18 +390,12 @@
     <t>Journal Publisher</t>
   </si>
   <si>
-    <t>Publisher</t>
-  </si>
-  <si>
     <t>Optimization Tool to Improve the Management of the Leakages and Recovered Energy in Irrigation Water Systems</t>
   </si>
   <si>
     <t>Leakage modelling was based on the balance of water volumes and distributed along the network with the global emitter coefficient (K) concept.</t>
   </si>
   <si>
-    <t>Requirements of Data</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
@@ -423,45 +417,6 @@
     <t>2023</t>
   </si>
   <si>
-    <t>American Society of Civil Engineers</t>
-  </si>
-  <si>
-    <t>A data-driven approach to locate multiple leaks in WDS using pressure residuals. Involving two phases, one phase to produce data sets to train classification model and perform clustering, and the other phase to estimate the location of the leaks.</t>
-  </si>
-  <si>
-    <t>- Calibrated hydraulic model.
-- Pressure sensors</t>
-  </si>
-  <si>
-    <t>- High computational demand</t>
-  </si>
-  <si>
-    <t>Leak Location Approach</t>
-  </si>
-  <si>
-    <t>Hydraulic Model Based</t>
-  </si>
-  <si>
-    <t>- Pressure sensors.
-- Flow meter sensors.</t>
-  </si>
-  <si>
-    <t>- Flow meter sensors.</t>
-  </si>
-  <si>
-    <t>Deep Learning Identifies Accurate Burst Locations in Water Distribution Networks</t>
-  </si>
-  <si>
-    <t>FOR: LEAKAGE MODELLING, LEAKAGE DETECTION, LEAKAGE LOCALIZATION</t>
-  </si>
-  <si>
-    <t>- Calibrated hydraulic model.
-- Pressure sensors.</t>
-  </si>
-  <si>
-    <t>Elsevier - Water Research</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -471,14 +426,159 @@
     <t>Frontiers in Water</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimization algorithm is used to predict </t>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>A hydraulic network model coupled to a genetic algorithm is employed to minimise the deviation between predicted and measured time series of pressure and flow at a small number of network sites. The leak discharge is defined by using the pressure function of the pressure head (P)  through the dimensional parameter c and the exponent γ.</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>PAPER TITLE</t>
+  </si>
+  <si>
+    <t>PUBLISHER</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>SOFTWARE BASED METHODS</t>
+  </si>
+  <si>
+    <t>HARDWARE BASED METHODS</t>
+  </si>
+  <si>
+    <t>LEAK DETECTION AND LOCATION METHODS</t>
+  </si>
+  <si>
+    <t>ACOUSTIC METHODS</t>
+  </si>
+  <si>
+    <t>NON-ACOUSTIC METHODS</t>
+  </si>
+  <si>
+    <t>NUMERICAL METHODS</t>
+  </si>
+  <si>
+    <t>NON-NUMERICAL METHODS</t>
+  </si>
+  <si>
+    <t>EXPERIMENTAL DATA</t>
+  </si>
+  <si>
+    <t>REAL DATA</t>
+  </si>
+  <si>
+    <t>SOURCE OF DATA</t>
+  </si>
+  <si>
+    <t>þ</t>
+  </si>
+  <si>
+    <t>FOR: EPANET CALIBRATION, LEAKAGE MODELLING, LEAKAGE DETECTION, LEAKAGE LOCALIZATION, LEAKAGE LOCATION.</t>
+  </si>
+  <si>
+    <t>- Calibrated hydraulic model</t>
+  </si>
+  <si>
+    <t>LEAKAGE MODELLING APPROACH</t>
+  </si>
+  <si>
+    <t>ACSE - Journal of Water Resources and Management</t>
+  </si>
+  <si>
+    <t>Digital Twin Framework for Lekaages Detection in Large-Scale Water Distribution Systems</t>
+  </si>
+  <si>
+    <t>IFAC Conference</t>
+  </si>
+  <si>
+    <t>- Pressure sensors
+- Flow meter sensors</t>
+  </si>
+  <si>
+    <t>- Pressure sensors</t>
+  </si>
+  <si>
+    <t>Identifying  the cluster leakage based on pressure residual from experimental dataset.</t>
+  </si>
+  <si>
+    <t>Leakages scenarios dataset is generated in range of leak size from 0.05 to 0.3 m diameter in all pipe nodes. Then, the GCN is used to predict leak pipes.</t>
+  </si>
+  <si>
+    <t>A Genetic Algorithm for Demand Pattern and Lekage Estimation in a Water Distribution Network</t>
+  </si>
+  <si>
+    <t>IWA - Journal of Water Supply: Research and Tehcnology</t>
+  </si>
+  <si>
+    <t>- Hydraulic model</t>
+  </si>
+  <si>
+    <t>Integrating Acoustic Sensor Information with Hydraulic Model Data for Improving Leakage Location in Water Distribution Network</t>
+  </si>
+  <si>
+    <t>IWA Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Noise logger sensors </t>
+  </si>
+  <si>
+    <t>- K-nearest neighbor</t>
+  </si>
+  <si>
+    <t>- Graph convolution network</t>
+  </si>
+  <si>
+    <t>- Genetic algorithm</t>
+  </si>
+  <si>
+    <t>- Artificial neural network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leakage is modelled as a pressure-independent variable in the location of noise logger. The dataset is generated from leak rate 0.5 to 5 L/s. Then, the ANN is used to identify and locate leakage in the network based on acoustic parameter and hydraulic parameter. </t>
+  </si>
+  <si>
+    <t>- Flow meter sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial neural network is used to predict the emmiter coefficient to determine severity of the leakage which based on pressure data. </t>
+  </si>
+  <si>
+    <t>Pressure Management for Leakage Reduction using Pressure Reducing Valves</t>
+  </si>
+  <si>
+    <t>Elsevier - Alexandria Engineering Journal</t>
+  </si>
+  <si>
+    <t>Improve Leakage Management to Reach Sustainable Water Supply Networks through Green Energy Systems</t>
+  </si>
+  <si>
+    <t>Elsevier - Sustainable Cities and Society</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leakage is defined through the continuity equation and pressure function. The optimization function is used to define the leakage emitter parameter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Annealing optimization algorithm </t>
+  </si>
+  <si>
+    <t>Leakage is modelled by the emitter concept using the pressure function. Pressure sensor data is used as a comparator and validator.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +594,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -503,7 +609,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -522,11 +628,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -572,6 +757,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,302 +1726,583 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7117D393-370F-41E6-8475-B08505AFF5F4}">
-  <dimension ref="B2:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8E5DE-A9F4-4E2F-9BA0-266C1D42F802}">
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" style="8" customWidth="1"/>
-    <col min="3" max="10" width="35.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="35.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="10" width="28.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
+      <c r="F15" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <v>15</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <v>16</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <v>17</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
+        <v>18</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>19</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <v>20</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
